--- a/data/pca/factorExposure/factorExposure_2016-06-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01096126664660085</v>
+        <v>-0.01250976065903495</v>
       </c>
       <c r="C2">
-        <v>0.0542154768984654</v>
+        <v>0.04043676106991122</v>
       </c>
       <c r="D2">
-        <v>-0.04292982140021763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06073279232475921</v>
+      </c>
+      <c r="E2">
+        <v>0.08097848063227975</v>
+      </c>
+      <c r="F2">
+        <v>-0.06240577270650512</v>
+      </c>
+      <c r="G2">
+        <v>-0.0431800910305595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04028531996331877</v>
+        <v>-0.02424939472886749</v>
       </c>
       <c r="C3">
-        <v>0.1125517706623592</v>
+        <v>0.07065147213035677</v>
       </c>
       <c r="D3">
-        <v>-0.09734031778837761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08077229419682491</v>
+      </c>
+      <c r="E3">
+        <v>0.06349331402044436</v>
+      </c>
+      <c r="F3">
+        <v>0.02029184999987561</v>
+      </c>
+      <c r="G3">
+        <v>0.03694881992904833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05814024173470726</v>
+        <v>-0.05609048688470377</v>
       </c>
       <c r="C4">
-        <v>0.06163127487083414</v>
+        <v>0.06460477689869976</v>
       </c>
       <c r="D4">
-        <v>-0.03426953548704478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05931553218089077</v>
+      </c>
+      <c r="E4">
+        <v>0.08012817495171683</v>
+      </c>
+      <c r="F4">
+        <v>-0.07386511286854615</v>
+      </c>
+      <c r="G4">
+        <v>0.03653463001633657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03875799860245926</v>
+        <v>-0.0347058580483779</v>
       </c>
       <c r="C6">
-        <v>0.03847215331103408</v>
+        <v>0.02977489578019345</v>
       </c>
       <c r="D6">
-        <v>-0.03257936726661367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06117897292095855</v>
+      </c>
+      <c r="E6">
+        <v>0.08091022163020875</v>
+      </c>
+      <c r="F6">
+        <v>-0.0499742056062167</v>
+      </c>
+      <c r="G6">
+        <v>0.02259120319127542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02075613052989439</v>
+        <v>-0.01721744428143162</v>
       </c>
       <c r="C7">
-        <v>0.0462047163166099</v>
+        <v>0.03842877686338794</v>
       </c>
       <c r="D7">
-        <v>0.002414399663912936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03767928039456398</v>
+      </c>
+      <c r="E7">
+        <v>0.05819703662417342</v>
+      </c>
+      <c r="F7">
+        <v>-0.09463689722197118</v>
+      </c>
+      <c r="G7">
+        <v>0.01132036142139548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005220166393755873</v>
+        <v>-0.002888133740190234</v>
       </c>
       <c r="C8">
-        <v>0.03528496571600773</v>
+        <v>0.03168587074079592</v>
       </c>
       <c r="D8">
-        <v>-0.02576803102686246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03369380361640943</v>
+      </c>
+      <c r="E8">
+        <v>0.05391118114179868</v>
+      </c>
+      <c r="F8">
+        <v>-0.03215180984954438</v>
+      </c>
+      <c r="G8">
+        <v>0.007340331147510597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03210369386644167</v>
+        <v>-0.03602444305751984</v>
       </c>
       <c r="C9">
-        <v>0.04803086206430886</v>
+        <v>0.05135716786064567</v>
       </c>
       <c r="D9">
-        <v>-0.01791763774325627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04300937015741019</v>
+      </c>
+      <c r="E9">
+        <v>0.06874320681966081</v>
+      </c>
+      <c r="F9">
+        <v>-0.07972953975101896</v>
+      </c>
+      <c r="G9">
+        <v>0.02264493970323561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08336791773640359</v>
+        <v>-0.1038603388982818</v>
       </c>
       <c r="C10">
-        <v>-0.1886934338820201</v>
+        <v>-0.1941118567142593</v>
       </c>
       <c r="D10">
-        <v>0.007635532964682736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008941943039010787</v>
+      </c>
+      <c r="E10">
+        <v>0.04491015849715145</v>
+      </c>
+      <c r="F10">
+        <v>-0.03219800071922875</v>
+      </c>
+      <c r="G10">
+        <v>0.01288326040205422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03923123767189682</v>
+        <v>-0.03509371440076763</v>
       </c>
       <c r="C11">
-        <v>0.05393053352474649</v>
+        <v>0.04920531047255879</v>
       </c>
       <c r="D11">
-        <v>-0.01686877379342761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03340360287358896</v>
+      </c>
+      <c r="E11">
+        <v>0.02339771564811717</v>
+      </c>
+      <c r="F11">
+        <v>-0.06287523433064454</v>
+      </c>
+      <c r="G11">
+        <v>0.01771418365573109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04117372002646186</v>
+        <v>-0.03726153895304872</v>
       </c>
       <c r="C12">
-        <v>0.0487897677799476</v>
+        <v>0.04633056191175206</v>
       </c>
       <c r="D12">
-        <v>-0.006673834593996771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02754071329577003</v>
+      </c>
+      <c r="E12">
+        <v>0.03111924737842994</v>
+      </c>
+      <c r="F12">
+        <v>-0.06452519954318287</v>
+      </c>
+      <c r="G12">
+        <v>0.01452078371766925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01119393638711248</v>
+        <v>-0.009964371110078901</v>
       </c>
       <c r="C13">
-        <v>0.05264372053663669</v>
+        <v>0.04186978725577224</v>
       </c>
       <c r="D13">
-        <v>-0.0157069411970933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04987002333891473</v>
+      </c>
+      <c r="E13">
+        <v>0.09338055315837397</v>
+      </c>
+      <c r="F13">
+        <v>-0.08703280855094737</v>
+      </c>
+      <c r="G13">
+        <v>0.02113254687172439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006611271022189366</v>
+        <v>-0.004013707636583577</v>
       </c>
       <c r="C14">
-        <v>0.04145516991563549</v>
+        <v>0.03335585523007755</v>
       </c>
       <c r="D14">
-        <v>0.009779993462780289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02454386004209116</v>
+      </c>
+      <c r="E14">
+        <v>0.04602934159090313</v>
+      </c>
+      <c r="F14">
+        <v>-0.08793090926211218</v>
+      </c>
+      <c r="G14">
+        <v>-0.003042582604657955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002845642513215084</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004948239046118822</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007193816702473752</v>
+      </c>
+      <c r="E15">
+        <v>0.003612518075709053</v>
+      </c>
+      <c r="F15">
+        <v>-0.005873721125394587</v>
+      </c>
+      <c r="G15">
+        <v>0.0002591411548055513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03602700412427941</v>
+        <v>-0.03321322575046218</v>
       </c>
       <c r="C16">
-        <v>0.04897316434625074</v>
+        <v>0.04522148063173714</v>
       </c>
       <c r="D16">
-        <v>-0.01180112172350316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02753550349060757</v>
+      </c>
+      <c r="E16">
+        <v>0.03719374291692168</v>
+      </c>
+      <c r="F16">
+        <v>-0.06369928562942537</v>
+      </c>
+      <c r="G16">
+        <v>0.003074931191827007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01840865807124707</v>
+        <v>-0.01445597095222849</v>
       </c>
       <c r="C19">
-        <v>0.06589238757051488</v>
+        <v>0.04753589844531998</v>
       </c>
       <c r="D19">
-        <v>-0.08532605911372522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08918050053521594</v>
+      </c>
+      <c r="E19">
+        <v>0.1038782335747705</v>
+      </c>
+      <c r="F19">
+        <v>-0.06433071673000063</v>
+      </c>
+      <c r="G19">
+        <v>-0.0264854463684783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0144056278661435</v>
+        <v>-0.01198096187615878</v>
       </c>
       <c r="C20">
-        <v>0.04827159007146774</v>
+        <v>0.03903560524078031</v>
       </c>
       <c r="D20">
-        <v>-0.01324200749183989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03559991272438148</v>
+      </c>
+      <c r="E20">
+        <v>0.07408553155066397</v>
+      </c>
+      <c r="F20">
+        <v>-0.06900952819003554</v>
+      </c>
+      <c r="G20">
+        <v>0.00711293348766088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008005053306845991</v>
+        <v>-0.007916187323581852</v>
       </c>
       <c r="C21">
-        <v>0.05024308581946597</v>
+        <v>0.04240957987799453</v>
       </c>
       <c r="D21">
-        <v>-0.03698246486552539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06332139731325208</v>
+      </c>
+      <c r="E21">
+        <v>0.1146894729663481</v>
+      </c>
+      <c r="F21">
+        <v>-0.1078103554491934</v>
+      </c>
+      <c r="G21">
+        <v>0.0072304268719957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0006995002624556292</v>
+        <v>-0.002525271608519739</v>
       </c>
       <c r="C22">
-        <v>0.0006075805882999665</v>
+        <v>0.02512024867492189</v>
       </c>
       <c r="D22">
-        <v>-0.001525399933594157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04221826214536337</v>
+      </c>
+      <c r="E22">
+        <v>0.03639847716162504</v>
+      </c>
+      <c r="F22">
+        <v>-0.009578572800362985</v>
+      </c>
+      <c r="G22">
+        <v>0.03781028231200392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0007050952570884889</v>
+        <v>-0.002597322518829153</v>
       </c>
       <c r="C23">
-        <v>0.0006076031530662044</v>
+        <v>0.02527712511597511</v>
       </c>
       <c r="D23">
-        <v>-0.001532712677332336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04188077723434635</v>
+      </c>
+      <c r="E23">
+        <v>0.03667335620882615</v>
+      </c>
+      <c r="F23">
+        <v>-0.009345709510679437</v>
+      </c>
+      <c r="G23">
+        <v>0.03800878637136536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03275013610197167</v>
+        <v>-0.0330435384436711</v>
       </c>
       <c r="C24">
-        <v>0.05083407446590421</v>
+        <v>0.05290127069601949</v>
       </c>
       <c r="D24">
-        <v>-0.01210213495551675</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02772970790363975</v>
+      </c>
+      <c r="E24">
+        <v>0.03839392827812527</v>
+      </c>
+      <c r="F24">
+        <v>-0.06980296834163585</v>
+      </c>
+      <c r="G24">
+        <v>0.01050887624940305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04629898394078538</v>
+        <v>-0.04274047376369414</v>
       </c>
       <c r="C25">
-        <v>0.06313254552805433</v>
+        <v>0.05732123825318625</v>
       </c>
       <c r="D25">
-        <v>-0.004105149491280007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02688343492558716</v>
+      </c>
+      <c r="E25">
+        <v>0.0297260638202553</v>
+      </c>
+      <c r="F25">
+        <v>-0.07328464782430658</v>
+      </c>
+      <c r="G25">
+        <v>0.02840861571390769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01504603990533763</v>
+        <v>-0.0142366701217966</v>
       </c>
       <c r="C26">
-        <v>0.01907120748901413</v>
+        <v>0.01738113488058802</v>
       </c>
       <c r="D26">
-        <v>-0.001286135072965111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02398140084147071</v>
+      </c>
+      <c r="E26">
+        <v>0.04753982870890666</v>
+      </c>
+      <c r="F26">
+        <v>-0.06332987567777922</v>
+      </c>
+      <c r="G26">
+        <v>-0.01300040287542583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09985125531291567</v>
+        <v>-0.1398611375410427</v>
       </c>
       <c r="C28">
-        <v>-0.2395996369281357</v>
+        <v>-0.2472927589913647</v>
       </c>
       <c r="D28">
-        <v>0.01312673578346234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0267394280811011</v>
+      </c>
+      <c r="E28">
+        <v>0.0606985789951672</v>
+      </c>
+      <c r="F28">
+        <v>-0.05096405490042539</v>
+      </c>
+      <c r="G28">
+        <v>0.02203629268617377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006844930801145384</v>
+        <v>-0.005383085372660739</v>
       </c>
       <c r="C29">
-        <v>0.03348506281611007</v>
+        <v>0.02963719545282974</v>
       </c>
       <c r="D29">
-        <v>0.0137737682159694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01851113495650922</v>
+      </c>
+      <c r="E29">
+        <v>0.04593605808417808</v>
+      </c>
+      <c r="F29">
+        <v>-0.08213738098946852</v>
+      </c>
+      <c r="G29">
+        <v>0.01059960404056305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04190156972275132</v>
+        <v>-0.03848218338214474</v>
       </c>
       <c r="C30">
-        <v>0.05612346228807449</v>
+        <v>0.05797582896316753</v>
       </c>
       <c r="D30">
-        <v>-0.07124390273892164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1006003563513797</v>
+      </c>
+      <c r="E30">
+        <v>0.06971240014758914</v>
+      </c>
+      <c r="F30">
+        <v>-0.07888068000117893</v>
+      </c>
+      <c r="G30">
+        <v>-0.01260624462501676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05538898758680977</v>
+        <v>-0.05568025737546357</v>
       </c>
       <c r="C31">
-        <v>0.04627414477176926</v>
+        <v>0.06122156916408594</v>
       </c>
       <c r="D31">
-        <v>0.02105915205707536</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006579541742676495</v>
+      </c>
+      <c r="E31">
+        <v>0.06995653251598613</v>
+      </c>
+      <c r="F31">
+        <v>-0.06249660746266987</v>
+      </c>
+      <c r="G31">
+        <v>0.0474251489900705</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002168990880683747</v>
+        <v>-0.004745524534604368</v>
       </c>
       <c r="C32">
-        <v>0.04029399104884738</v>
+        <v>0.03290523314252668</v>
       </c>
       <c r="D32">
-        <v>-0.04741263543996964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05527122653986449</v>
+      </c>
+      <c r="E32">
+        <v>0.05369953860794455</v>
+      </c>
+      <c r="F32">
+        <v>-0.06254355465388374</v>
+      </c>
+      <c r="G32">
+        <v>-0.01251222885828374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0253229842214373</v>
+        <v>-0.02268170560618883</v>
       </c>
       <c r="C33">
-        <v>0.06229341036156702</v>
+        <v>0.0540485893601764</v>
       </c>
       <c r="D33">
-        <v>-0.05120911425080787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07911752662880618</v>
+      </c>
+      <c r="E33">
+        <v>0.08667666581053997</v>
+      </c>
+      <c r="F33">
+        <v>-0.1077359069658345</v>
+      </c>
+      <c r="G33">
+        <v>0.02099648168673729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04378796265964391</v>
+        <v>-0.03983318770505714</v>
       </c>
       <c r="C34">
-        <v>0.06771067701078326</v>
+        <v>0.06527112425455316</v>
       </c>
       <c r="D34">
-        <v>-0.01777454407453023</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03779147340345398</v>
+      </c>
+      <c r="E34">
+        <v>0.01054344157490126</v>
+      </c>
+      <c r="F34">
+        <v>-0.07852352316932061</v>
+      </c>
+      <c r="G34">
+        <v>0.01422957346010988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01465031395235038</v>
+        <v>-0.01343287598586079</v>
       </c>
       <c r="C36">
-        <v>0.01670405415991709</v>
+        <v>0.01265429327418492</v>
       </c>
       <c r="D36">
-        <v>-0.001847965016043688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02700468669402084</v>
+      </c>
+      <c r="E36">
+        <v>0.05570562717097852</v>
+      </c>
+      <c r="F36">
+        <v>-0.06859946088263853</v>
+      </c>
+      <c r="G36">
+        <v>0.01026152374703577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02769765156972256</v>
+        <v>-0.02203174757314021</v>
       </c>
       <c r="C38">
-        <v>0.03002479832033705</v>
+        <v>0.02268491205518689</v>
       </c>
       <c r="D38">
-        <v>0.008520501469327729</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02256269907039513</v>
+      </c>
+      <c r="E38">
+        <v>0.0469978073252094</v>
+      </c>
+      <c r="F38">
+        <v>-0.05415334071880179</v>
+      </c>
+      <c r="G38">
+        <v>0.003660166913275045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04299766540846062</v>
+        <v>-0.0380681797677563</v>
       </c>
       <c r="C39">
-        <v>0.06651362154259345</v>
+        <v>0.06438804858488963</v>
       </c>
       <c r="D39">
-        <v>-0.02206164982105869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05233666279250927</v>
+      </c>
+      <c r="E39">
+        <v>0.0420895445011158</v>
+      </c>
+      <c r="F39">
+        <v>-0.08004600276888479</v>
+      </c>
+      <c r="G39">
+        <v>-0.01098408484400915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01213626448186095</v>
+        <v>-0.01254730614820712</v>
       </c>
       <c r="C40">
-        <v>0.05078859906057913</v>
+        <v>0.03708926443496563</v>
       </c>
       <c r="D40">
-        <v>-0.01771687561742713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03335415300228097</v>
+      </c>
+      <c r="E40">
+        <v>0.08122437375451756</v>
+      </c>
+      <c r="F40">
+        <v>-0.0646893770660481</v>
+      </c>
+      <c r="G40">
+        <v>0.03940748310423412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02137894687953291</v>
+        <v>-0.01897288380671594</v>
       </c>
       <c r="C41">
-        <v>0.01304576328079838</v>
+        <v>0.01023263399936212</v>
       </c>
       <c r="D41">
-        <v>-0.003048661516251164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01706334371894319</v>
+      </c>
+      <c r="E41">
+        <v>0.05491866320527537</v>
+      </c>
+      <c r="F41">
+        <v>-0.05778352914618473</v>
+      </c>
+      <c r="G41">
+        <v>0.00313485418610469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03759491470041391</v>
+        <v>-0.02855485170338227</v>
       </c>
       <c r="C43">
-        <v>0.03446131605228688</v>
+        <v>0.02493992447732404</v>
       </c>
       <c r="D43">
-        <v>-0.03075763528930717</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04427602866384042</v>
+      </c>
+      <c r="E43">
+        <v>0.06942041867329676</v>
+      </c>
+      <c r="F43">
+        <v>-0.06453607434222251</v>
+      </c>
+      <c r="G43">
+        <v>0.02113422822969803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01073493215222145</v>
+        <v>-0.01247291290207496</v>
       </c>
       <c r="C44">
-        <v>0.06724639129763214</v>
+        <v>0.04964088062981275</v>
       </c>
       <c r="D44">
-        <v>-0.01283515320807145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03809766630819018</v>
+      </c>
+      <c r="E44">
+        <v>0.08540290820994265</v>
+      </c>
+      <c r="F44">
+        <v>-0.06820719870343549</v>
+      </c>
+      <c r="G44">
+        <v>-0.006061191737778747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.00752479585724748</v>
+        <v>-0.00839823494057872</v>
       </c>
       <c r="C46">
-        <v>0.02989176300296687</v>
+        <v>0.02946241965051145</v>
       </c>
       <c r="D46">
-        <v>0.01464861810440338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01350548779117838</v>
+      </c>
+      <c r="E46">
+        <v>0.05584742694289097</v>
+      </c>
+      <c r="F46">
+        <v>-0.09611240531277837</v>
+      </c>
+      <c r="G46">
+        <v>0.004360878690916645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08194469290129974</v>
+        <v>-0.08704391962823213</v>
       </c>
       <c r="C47">
-        <v>0.07343230137681336</v>
+        <v>0.08237182516133787</v>
       </c>
       <c r="D47">
-        <v>0.02328499901232534</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01470848305421909</v>
+      </c>
+      <c r="E47">
+        <v>0.07296389791975555</v>
+      </c>
+      <c r="F47">
+        <v>-0.06516149415641506</v>
+      </c>
+      <c r="G47">
+        <v>0.0513313921746897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.017377690749506</v>
+        <v>-0.01573692572921256</v>
       </c>
       <c r="C48">
-        <v>0.01642015392010436</v>
+        <v>0.01685820712985299</v>
       </c>
       <c r="D48">
-        <v>0.01350970596442009</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01564332294786861</v>
+      </c>
+      <c r="E48">
+        <v>0.06718225559361707</v>
+      </c>
+      <c r="F48">
+        <v>-0.08584965990018788</v>
+      </c>
+      <c r="G48">
+        <v>0.01015706675639868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07811677098869298</v>
+        <v>-0.06997676850911858</v>
       </c>
       <c r="C50">
-        <v>0.0832293242410229</v>
+        <v>0.07582514954493515</v>
       </c>
       <c r="D50">
-        <v>0.02349562946734743</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001437624938728716</v>
+      </c>
+      <c r="E50">
+        <v>0.0762824525638602</v>
+      </c>
+      <c r="F50">
+        <v>-0.04647178239765658</v>
+      </c>
+      <c r="G50">
+        <v>0.06895170933357851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01440906405065803</v>
+        <v>-0.009912550584903408</v>
       </c>
       <c r="C51">
-        <v>0.05144684686039083</v>
+        <v>0.03260164518726173</v>
       </c>
       <c r="D51">
-        <v>-0.02948817376696591</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04954530634620087</v>
+      </c>
+      <c r="E51">
+        <v>0.04179754729904776</v>
+      </c>
+      <c r="F51">
+        <v>-0.07308736331221745</v>
+      </c>
+      <c r="G51">
+        <v>-0.01795055724522039</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07969917813117533</v>
+        <v>-0.09265905920912421</v>
       </c>
       <c r="C53">
-        <v>0.07996939657240579</v>
+        <v>0.08901300318930254</v>
       </c>
       <c r="D53">
-        <v>0.03895362660454822</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04081150677714766</v>
+      </c>
+      <c r="E53">
+        <v>0.07022295861771831</v>
+      </c>
+      <c r="F53">
+        <v>-0.07525901445426611</v>
+      </c>
+      <c r="G53">
+        <v>0.06498839236636342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0307004933542203</v>
+        <v>-0.02736306771745589</v>
       </c>
       <c r="C54">
-        <v>0.03166834692810724</v>
+        <v>0.02882665756677822</v>
       </c>
       <c r="D54">
-        <v>-0.006047971374601983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03134079319444518</v>
+      </c>
+      <c r="E54">
+        <v>0.05361569981547645</v>
+      </c>
+      <c r="F54">
+        <v>-0.0934303830315481</v>
+      </c>
+      <c r="G54">
+        <v>0.01219415649428753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07370256701354437</v>
+        <v>-0.08449076454378111</v>
       </c>
       <c r="C55">
-        <v>0.06162665773890149</v>
+        <v>0.07226911350164444</v>
       </c>
       <c r="D55">
-        <v>0.04701178468410306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04712653093002134</v>
+      </c>
+      <c r="E55">
+        <v>0.05168242391019118</v>
+      </c>
+      <c r="F55">
+        <v>-0.0520922945939642</v>
+      </c>
+      <c r="G55">
+        <v>0.05377615076993012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1435044393268606</v>
+        <v>-0.1465364955496822</v>
       </c>
       <c r="C56">
-        <v>0.09950343566323072</v>
+        <v>0.1097425508325702</v>
       </c>
       <c r="D56">
-        <v>0.03596871279975424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04216683645503354</v>
+      </c>
+      <c r="E56">
+        <v>0.05355053830352719</v>
+      </c>
+      <c r="F56">
+        <v>-0.0367830031859162</v>
+      </c>
+      <c r="G56">
+        <v>0.05946906765733944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0007747408715369366</v>
+        <v>-0.0005765673955800021</v>
       </c>
       <c r="C57">
-        <v>-0.001455589192836123</v>
+        <v>-0.0008584865320369743</v>
       </c>
       <c r="D57">
-        <v>-0.004492932252542698</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.002796473830488811</v>
+      </c>
+      <c r="E57">
+        <v>0.003707792270338386</v>
+      </c>
+      <c r="F57">
+        <v>-0.00196593854482325</v>
+      </c>
+      <c r="G57">
+        <v>0.001645722963186317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04145345281321575</v>
+        <v>-0.02475074254251418</v>
       </c>
       <c r="C58">
-        <v>0.01950379459946688</v>
+        <v>0.01951632908384712</v>
       </c>
       <c r="D58">
-        <v>-0.6531554632463922</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3955410971048027</v>
+      </c>
+      <c r="E58">
+        <v>0.6307684048063549</v>
+      </c>
+      <c r="F58">
+        <v>0.5845804880629399</v>
+      </c>
+      <c r="G58">
+        <v>-0.1142344342377384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1363729269193283</v>
+        <v>-0.1461771254380267</v>
       </c>
       <c r="C59">
-        <v>-0.1943357385484814</v>
+        <v>-0.1852138493880018</v>
       </c>
       <c r="D59">
-        <v>-0.01730950212101733</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02389993024741248</v>
+      </c>
+      <c r="E59">
+        <v>0.02712825908560518</v>
+      </c>
+      <c r="F59">
+        <v>-0.01842374965744975</v>
+      </c>
+      <c r="G59">
+        <v>-0.03141577736381208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3074031603824646</v>
+        <v>-0.2800691064165531</v>
       </c>
       <c r="C60">
-        <v>0.1053399962452875</v>
+        <v>0.1032126651464387</v>
       </c>
       <c r="D60">
-        <v>-0.164284839814285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2450744405527961</v>
+      </c>
+      <c r="E60">
+        <v>-0.2603257653612315</v>
+      </c>
+      <c r="F60">
+        <v>0.07317812808973546</v>
+      </c>
+      <c r="G60">
+        <v>0.04565247565110381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04090239854548677</v>
+        <v>-0.03925484328492528</v>
       </c>
       <c r="C61">
-        <v>0.06402449862960302</v>
+        <v>0.06030884197995916</v>
       </c>
       <c r="D61">
-        <v>-0.018230734757337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04448055193296882</v>
+      </c>
+      <c r="E61">
+        <v>0.04605309575376031</v>
+      </c>
+      <c r="F61">
+        <v>-0.07108681322521464</v>
+      </c>
+      <c r="G61">
+        <v>0.01381627226282277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0146911087421328</v>
+        <v>-0.01431646642011641</v>
       </c>
       <c r="C63">
-        <v>0.03483917722780701</v>
+        <v>0.03206508469452537</v>
       </c>
       <c r="D63">
-        <v>0.008850961132095742</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02058080609137465</v>
+      </c>
+      <c r="E63">
+        <v>0.05870970497956018</v>
+      </c>
+      <c r="F63">
+        <v>-0.06328644117692445</v>
+      </c>
+      <c r="G63">
+        <v>0.02919049428480445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04772915064505347</v>
+        <v>-0.05514934364921779</v>
       </c>
       <c r="C64">
-        <v>0.04854701985396697</v>
+        <v>0.05715791720145035</v>
       </c>
       <c r="D64">
-        <v>-0.007851546672626351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01048134728836046</v>
+      </c>
+      <c r="E64">
+        <v>0.04056309790965784</v>
+      </c>
+      <c r="F64">
+        <v>-0.08268130936744261</v>
+      </c>
+      <c r="G64">
+        <v>0.0136839682301003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08353613311698851</v>
+        <v>-0.06784334146199447</v>
       </c>
       <c r="C65">
-        <v>0.0331773780957699</v>
+        <v>0.03069887786625149</v>
       </c>
       <c r="D65">
-        <v>-0.05146647722388503</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08207474467170318</v>
+      </c>
+      <c r="E65">
+        <v>0.04374839472201499</v>
+      </c>
+      <c r="F65">
+        <v>0.001181167414978794</v>
+      </c>
+      <c r="G65">
+        <v>0.0004497365683911513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05814237263372814</v>
+        <v>-0.04945354862355929</v>
       </c>
       <c r="C66">
-        <v>0.0928453034592326</v>
+        <v>0.08368551830044778</v>
       </c>
       <c r="D66">
-        <v>-0.04337615824860751</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07737409923795988</v>
+      </c>
+      <c r="E66">
+        <v>0.04918492024662122</v>
+      </c>
+      <c r="F66">
+        <v>-0.08304643820946681</v>
+      </c>
+      <c r="G66">
+        <v>0.005778405414051248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04984890068954714</v>
+        <v>-0.04412346101556881</v>
       </c>
       <c r="C67">
-        <v>0.03166510698101029</v>
+        <v>0.02782184113742613</v>
       </c>
       <c r="D67">
-        <v>0.01181813353321308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008405346090037872</v>
+      </c>
+      <c r="E67">
+        <v>0.0256341202896236</v>
+      </c>
+      <c r="F67">
+        <v>-0.04462497137047462</v>
+      </c>
+      <c r="G67">
+        <v>0.01027620554798749</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1359887326336236</v>
+        <v>-0.1556245975367958</v>
       </c>
       <c r="C68">
-        <v>-0.2783019600162367</v>
+        <v>-0.2441894025185392</v>
       </c>
       <c r="D68">
-        <v>0.01773130849777502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02043391712217772</v>
+      </c>
+      <c r="E68">
+        <v>0.04141348922184795</v>
+      </c>
+      <c r="F68">
+        <v>-0.01173521611553699</v>
+      </c>
+      <c r="G68">
+        <v>0.009926178920632878</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08859309205158042</v>
+        <v>-0.0860544329212261</v>
       </c>
       <c r="C69">
-        <v>0.07280087939008149</v>
+        <v>0.08966861405018314</v>
       </c>
       <c r="D69">
-        <v>0.0328234964287007</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.005822633950762948</v>
+      </c>
+      <c r="E69">
+        <v>0.05695739439700188</v>
+      </c>
+      <c r="F69">
+        <v>-0.08469545735215586</v>
+      </c>
+      <c r="G69">
+        <v>0.03096358214085672</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1234558467853521</v>
+        <v>-0.1458863960593604</v>
       </c>
       <c r="C71">
-        <v>-0.2467323864560763</v>
+        <v>-0.234913517267694</v>
       </c>
       <c r="D71">
-        <v>-0.01635789760184019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.004774394355806203</v>
+      </c>
+      <c r="E71">
+        <v>0.06619537095628762</v>
+      </c>
+      <c r="F71">
+        <v>-0.04741689435229215</v>
+      </c>
+      <c r="G71">
+        <v>0.03927610494430626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08975455493169797</v>
+        <v>-0.09848061697512668</v>
       </c>
       <c r="C72">
-        <v>0.05955694305372877</v>
+        <v>0.05935899082499914</v>
       </c>
       <c r="D72">
-        <v>-0.01140483067892761</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03268917656203043</v>
+      </c>
+      <c r="E72">
+        <v>0.02562620976335254</v>
+      </c>
+      <c r="F72">
+        <v>-0.06409024901365473</v>
+      </c>
+      <c r="G72">
+        <v>0.03580888185987938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4024648034561678</v>
+        <v>-0.3423593500648843</v>
       </c>
       <c r="C73">
-        <v>0.05486899130749476</v>
+        <v>0.07051564742170983</v>
       </c>
       <c r="D73">
-        <v>-0.3875924579521344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4876865007542287</v>
+      </c>
+      <c r="E73">
+        <v>-0.4699095646240862</v>
+      </c>
+      <c r="F73">
+        <v>0.2163210260177353</v>
+      </c>
+      <c r="G73">
+        <v>0.1043355797398883</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1023449730006503</v>
+        <v>-0.1082258360497996</v>
       </c>
       <c r="C74">
-        <v>0.09741495768756267</v>
+        <v>0.09739484117133103</v>
       </c>
       <c r="D74">
-        <v>0.01994848494963173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03129550642687242</v>
+      </c>
+      <c r="E74">
+        <v>0.06877603250270754</v>
+      </c>
+      <c r="F74">
+        <v>-0.03500033569022575</v>
+      </c>
+      <c r="G74">
+        <v>0.07205696387397606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2503531089130293</v>
+        <v>-0.2559147886642111</v>
       </c>
       <c r="C75">
-        <v>0.1091815836120755</v>
+        <v>0.1342235297422391</v>
       </c>
       <c r="D75">
-        <v>0.08888506367883292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1250950676004968</v>
+      </c>
+      <c r="E75">
+        <v>0.06623670007227876</v>
+      </c>
+      <c r="F75">
+        <v>-0.01405800336356139</v>
+      </c>
+      <c r="G75">
+        <v>0.07627997150813641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1096186094793162</v>
+        <v>-0.124750491314312</v>
       </c>
       <c r="C76">
-        <v>0.08870467645780516</v>
+        <v>0.09883715737956288</v>
       </c>
       <c r="D76">
-        <v>0.05099661402719672</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06052435692686186</v>
+      </c>
+      <c r="E76">
+        <v>0.07847847659058886</v>
+      </c>
+      <c r="F76">
+        <v>-0.05815825203020171</v>
+      </c>
+      <c r="G76">
+        <v>0.05853756735899236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07528684337542008</v>
+        <v>-0.05964507824849989</v>
       </c>
       <c r="C77">
-        <v>0.05880723032146004</v>
+        <v>0.06953367588405521</v>
       </c>
       <c r="D77">
-        <v>-0.05366939460683573</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06238033942941401</v>
+      </c>
+      <c r="E77">
+        <v>0.09651356420788747</v>
+      </c>
+      <c r="F77">
+        <v>-0.1100104359900274</v>
+      </c>
+      <c r="G77">
+        <v>-0.1442263251475419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04556537005803928</v>
+        <v>-0.04240125322991566</v>
       </c>
       <c r="C78">
-        <v>0.05110128044973288</v>
+        <v>0.05752807147466085</v>
       </c>
       <c r="D78">
-        <v>-0.02686397681212845</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06353346095253468</v>
+      </c>
+      <c r="E78">
+        <v>0.05206071320534667</v>
+      </c>
+      <c r="F78">
+        <v>-0.0841032555440495</v>
+      </c>
+      <c r="G78">
+        <v>0.009581194305525231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02800936123425957</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04522021864623234</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0606962553543498</v>
+      </c>
+      <c r="E79">
+        <v>0.06746410340308354</v>
+      </c>
+      <c r="F79">
+        <v>-0.02667756226906278</v>
+      </c>
+      <c r="G79">
+        <v>0.07938731758636872</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03791983054877179</v>
+        <v>-0.0298332161166237</v>
       </c>
       <c r="C80">
-        <v>0.05216920769354477</v>
+        <v>0.05168601976251577</v>
       </c>
       <c r="D80">
-        <v>-0.02375867652700233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03693957860868934</v>
+      </c>
+      <c r="E80">
+        <v>0.01580496104884439</v>
+      </c>
+      <c r="F80">
+        <v>-0.03390082059288528</v>
+      </c>
+      <c r="G80">
+        <v>-0.04457233769919984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1386155097967959</v>
+        <v>-0.1384737028205307</v>
       </c>
       <c r="C81">
-        <v>0.08126138853074774</v>
+        <v>0.09679604191820744</v>
       </c>
       <c r="D81">
-        <v>0.07506241371297012</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1042101193375865</v>
+      </c>
+      <c r="E81">
+        <v>0.08129415924955044</v>
+      </c>
+      <c r="F81">
+        <v>-0.003996939503707556</v>
+      </c>
+      <c r="G81">
+        <v>0.05235720014304597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1674430431176238</v>
+        <v>-0.2066889696118958</v>
       </c>
       <c r="C82">
-        <v>0.09360109892458573</v>
+        <v>0.1562426981331245</v>
       </c>
       <c r="D82">
-        <v>0.1423503814058685</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2156703698137195</v>
+      </c>
+      <c r="E82">
+        <v>0.009132810483040776</v>
+      </c>
+      <c r="F82">
+        <v>-0.1033646166726316</v>
+      </c>
+      <c r="G82">
+        <v>0.055783294069192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03762411759882409</v>
+        <v>-0.02613242769494093</v>
       </c>
       <c r="C83">
-        <v>0.03025829169407222</v>
+        <v>0.04246972950649045</v>
       </c>
       <c r="D83">
-        <v>-0.03470164642276611</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03200655583416783</v>
+      </c>
+      <c r="E83">
+        <v>0.02288375407993452</v>
+      </c>
+      <c r="F83">
+        <v>-0.04159437419647182</v>
+      </c>
+      <c r="G83">
+        <v>-0.02035408590858433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001170426691168906</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008011328442147518</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001144134382036071</v>
+      </c>
+      <c r="E84">
+        <v>0.0006061053729482743</v>
+      </c>
+      <c r="F84">
+        <v>-0.0006018037063445672</v>
+      </c>
+      <c r="G84">
+        <v>-0.0003855753621562768</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.21725280456569</v>
+        <v>-0.2016230560788598</v>
       </c>
       <c r="C85">
-        <v>0.1055099302967705</v>
+        <v>0.1177443124210461</v>
       </c>
       <c r="D85">
-        <v>0.1166563350365457</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09696987373825822</v>
+      </c>
+      <c r="E85">
+        <v>-0.006101264575153154</v>
+      </c>
+      <c r="F85">
+        <v>0.01450023799109478</v>
+      </c>
+      <c r="G85">
+        <v>0.1346157630896818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00595303093559633</v>
+        <v>-0.00828278173856351</v>
       </c>
       <c r="C86">
-        <v>0.03213731880165783</v>
+        <v>0.02242130675176161</v>
       </c>
       <c r="D86">
-        <v>-0.03343977028322093</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05356577215641175</v>
+      </c>
+      <c r="E86">
+        <v>0.06883693545314179</v>
+      </c>
+      <c r="F86">
+        <v>-0.1251097859740075</v>
+      </c>
+      <c r="G86">
+        <v>-0.006771270299857969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02236182988276266</v>
+        <v>-0.02172380894238463</v>
       </c>
       <c r="C87">
-        <v>0.007091678467639074</v>
+        <v>0.01506364551499634</v>
       </c>
       <c r="D87">
-        <v>-0.0848773203068755</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0850469612372321</v>
+      </c>
+      <c r="E87">
+        <v>0.1191654210187514</v>
+      </c>
+      <c r="F87">
+        <v>-0.06225113395873597</v>
+      </c>
+      <c r="G87">
+        <v>-0.04307175787672161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1040008030574034</v>
+        <v>-0.09195643689816613</v>
       </c>
       <c r="C88">
-        <v>0.0743191746176764</v>
+        <v>0.0632742114151373</v>
       </c>
       <c r="D88">
-        <v>0.02204212789584199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.005685798210924741</v>
+      </c>
+      <c r="E88">
+        <v>0.0460808631263438</v>
+      </c>
+      <c r="F88">
+        <v>-0.06711866165139277</v>
+      </c>
+      <c r="G88">
+        <v>-0.02104983079932671</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1954590349136867</v>
+        <v>-0.2254810254496327</v>
       </c>
       <c r="C89">
-        <v>-0.3738834895944972</v>
+        <v>-0.3782468638804857</v>
       </c>
       <c r="D89">
-        <v>0.03117048353912839</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0224358155458868</v>
+      </c>
+      <c r="E89">
+        <v>0.06579942265025983</v>
+      </c>
+      <c r="F89">
+        <v>-0.07695343152308054</v>
+      </c>
+      <c r="G89">
+        <v>-0.06179238507240403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1864614099213537</v>
+        <v>-0.2044095949995517</v>
       </c>
       <c r="C90">
-        <v>-0.3311583201475924</v>
+        <v>-0.3101781769998163</v>
       </c>
       <c r="D90">
-        <v>0.03041708643122535</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02283536994213315</v>
+      </c>
+      <c r="E90">
+        <v>0.06840653574923103</v>
+      </c>
+      <c r="F90">
+        <v>-0.03584658554943278</v>
+      </c>
+      <c r="G90">
+        <v>-0.01473013191528699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1867198752543748</v>
+        <v>-0.1846800933989623</v>
       </c>
       <c r="C91">
-        <v>0.130224540270319</v>
+        <v>0.1457018398153763</v>
       </c>
       <c r="D91">
-        <v>0.08724544114204308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1044777219343586</v>
+      </c>
+      <c r="E91">
+        <v>0.06181275655522945</v>
+      </c>
+      <c r="F91">
+        <v>-0.02839802227343855</v>
+      </c>
+      <c r="G91">
+        <v>0.05969713832490164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1683143706454674</v>
+        <v>-0.1836453210532611</v>
       </c>
       <c r="C92">
-        <v>-0.2761123346956426</v>
+        <v>-0.2835320241141593</v>
       </c>
       <c r="D92">
-        <v>0.01384706615043856</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02050168328146646</v>
+      </c>
+      <c r="E92">
+        <v>0.07589307612844408</v>
+      </c>
+      <c r="F92">
+        <v>-0.07849714923561008</v>
+      </c>
+      <c r="G92">
+        <v>-0.00729686874458021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2092386488539636</v>
+        <v>-0.2269449918614209</v>
       </c>
       <c r="C93">
-        <v>-0.3310040483216634</v>
+        <v>-0.3155160281248467</v>
       </c>
       <c r="D93">
-        <v>0.02908387147967686</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01593086580155736</v>
+      </c>
+      <c r="E93">
+        <v>0.04439848454950711</v>
+      </c>
+      <c r="F93">
+        <v>-0.03439001230684324</v>
+      </c>
+      <c r="G93">
+        <v>0.02949332990952503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3438637499224301</v>
+        <v>-0.3458302635064727</v>
       </c>
       <c r="C94">
-        <v>0.1721445740614494</v>
+        <v>0.2002159470430974</v>
       </c>
       <c r="D94">
-        <v>0.4769525270943195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4975577740071182</v>
+      </c>
+      <c r="E94">
+        <v>-0.01079145061034761</v>
+      </c>
+      <c r="F94">
+        <v>0.4415544033858455</v>
+      </c>
+      <c r="G94">
+        <v>-0.3509127498640908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1097413496354656</v>
+        <v>-0.08220744225064874</v>
       </c>
       <c r="C95">
-        <v>0.07383780677980746</v>
+        <v>0.06328508766001428</v>
       </c>
       <c r="D95">
-        <v>-0.1363816585310184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1698622254183192</v>
+      </c>
+      <c r="E95">
+        <v>-0.1060460346024867</v>
+      </c>
+      <c r="F95">
+        <v>-0.2727702888467556</v>
+      </c>
+      <c r="G95">
+        <v>-0.8482445327342918</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1924996026402549</v>
+        <v>-0.1858870360038858</v>
       </c>
       <c r="C98">
-        <v>0.01965368096478885</v>
+        <v>0.04184116784554208</v>
       </c>
       <c r="D98">
-        <v>-0.1483927818952912</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.197450810226479</v>
+      </c>
+      <c r="E98">
+        <v>-0.1424518603506726</v>
+      </c>
+      <c r="F98">
+        <v>0.02862882339800905</v>
+      </c>
+      <c r="G98">
+        <v>0.09659147877310278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006806738863033852</v>
+        <v>-0.005442568896630915</v>
       </c>
       <c r="C101">
-        <v>0.03348717838708241</v>
+        <v>0.02936655832159135</v>
       </c>
       <c r="D101">
-        <v>0.01446034889578766</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01790282059900811</v>
+      </c>
+      <c r="E101">
+        <v>0.04652156410898736</v>
+      </c>
+      <c r="F101">
+        <v>-0.08180245530807165</v>
+      </c>
+      <c r="G101">
+        <v>0.009477541286631993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1215171532456937</v>
+        <v>-0.1242951714515064</v>
       </c>
       <c r="C102">
-        <v>0.07478414037011995</v>
+        <v>0.1019890532588531</v>
       </c>
       <c r="D102">
-        <v>0.02418409491067243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04008934491391244</v>
+      </c>
+      <c r="E102">
+        <v>-0.001436308375123896</v>
+      </c>
+      <c r="F102">
+        <v>-0.04571649501412001</v>
+      </c>
+      <c r="G102">
+        <v>0.01922715115714146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
